--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>\\Client\c$\RPA\Procurement\Excel_Output_Test</t>
+  </si>
+  <si>
+    <t>DriveG_Copy</t>
+  </si>
+  <si>
+    <t>DriveG_Path</t>
+  </si>
+  <si>
+    <t>\\HKHKGPIFSSC0009.global.publicisgroupe.net\group_reach\PR\CN\Permanent\Local Data\AP Data - China\RPA</t>
   </si>
 </sst>
 </file>
@@ -229,11 +238,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -245,10 +255,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Settings" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -563,7 +575,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -720,8 +732,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1707,14 +1733,15 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId2" display="\\Client\c$\RPA\Procurement\Excel_Output"/>
     <hyperlink ref="B11" r:id="rId3"/>
     <hyperlink ref="C10" r:id="rId4"/>
-    <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId5" display="procurement_res_cn@lionresources.com"/>
+    <hyperlink ref="C7" r:id="rId6" display="\\Client\c$\RPA\Procurement\Excel_Output ,  "/>
+    <hyperlink ref="B16" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
